--- a/UseCaseScenariji/Provjera-podataka-od-strane-pojedinca.xlsx
+++ b/UseCaseScenariji/Provjera-podataka-od-strane-pojedinca.xlsx
@@ -52,12 +52,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -89,20 +101,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,42 +420,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
